--- a/Agenda/Plan_Master_Thesis.xlsx
+++ b/Agenda/Plan_Master_Thesis.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="48">
   <si>
     <t xml:space="preserve">Master Thesis Plan</t>
   </si>
@@ -106,9 +106,6 @@
     <t xml:space="preserve">Analysis of fertilizer data and read of State of the Arte in Chile (Introduction) and more about Table grape phenology.</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
     <t xml:space="preserve">Week 28</t>
   </si>
   <si>
@@ -127,9 +124,6 @@
     <t xml:space="preserve">Revision of result using the data</t>
   </si>
   <si>
-    <t xml:space="preserve">Almost</t>
-  </si>
-  <si>
     <t xml:space="preserve">Week 30</t>
   </si>
   <si>
@@ -151,52 +145,52 @@
     <t xml:space="preserve">Weekly thesis writing progress sent and / or discussed with supervisors (Dr. Sarah/ Dr. Thorsten).</t>
   </si>
   <si>
+    <t xml:space="preserve">Week 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting to analyze writing and finalize thesis process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyze writing and finalize thesis process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 39</t>
+  </si>
+  <si>
     <t xml:space="preserve">No/Probably</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting to analyze writing and finalize thesis process.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final review with supervisors (Dr. Sarah)</t>
+    <t xml:space="preserve">Week 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ppt presentation</t>
   </si>
   <si>
     <t xml:space="preserve">Preparation of presentation and request for defense date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ppt presentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October</t>
   </si>
   <si>
     <t xml:space="preserve">Week 41</t>
@@ -432,11 +426,11 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.69"/>
@@ -470,7 +464,7 @@
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -490,7 +484,7 @@
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -508,265 +502,307 @@
         <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>31</v>
+        <v>11</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>31</v>
+        <v>11</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>31</v>
+        <v>11</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>31</v>
+        <v>11</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>31</v>
+        <v>11</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>11</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="E15" s="5" t="s">
-        <v>31</v>
+        <v>11</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="E16" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>31</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
